--- a/Data File.xlsx
+++ b/Data File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,17 +34,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <b val="1"/>
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -55,11 +49,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -96,13 +85,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,10 +469,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -559,6 +547,13 @@
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>https://python.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10ubon.com</t>
         </is>
       </c>
     </row>
@@ -583,32 +578,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Final URL</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>HTTP Response</t>
         </is>
@@ -617,12 +612,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://moz.com/</t>
+          <t>https://www.chickens.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://moz.com/</t>
+          <t>https://www.chickens.com/</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -632,12 +627,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.chickens.com</t>
+          <t>https://moz.com/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.chickens.com/</t>
+          <t>https://moz.com/</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -647,16 +642,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://google.com</t>
+          <t>https://10ubon.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.google.com/</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>301</v>
+          <t>https://10ubon.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -677,57 +674,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://youtube.com</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/</t>
+          <t>https://google.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://facebook.com</t>
+          <t>https://www.nike.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/</t>
+          <t>https://www.nike.com/</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.nike.com</t>
+          <t>https://youtube.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.nike.com/</t>
+          <t>https://www.youtube.com/</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://python.org</t>
+          <t>https://facebook.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.python.org/</t>
+          <t>https://www.facebook.com/</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -737,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://yahoo.com</t>
+          <t>https://python.org</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.yahoo.com/</t>
+          <t>https://www.python.org/</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -752,547 +749,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.chickens.com</t>
+          <t>https://yahoo.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.chickens.com/</t>
+          <t>https://www.yahoo.com/</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.nike.com</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://www.nike.com/</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://google.com</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://github.com</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://github.com/</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://youtube.com</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://facebook.com</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://yahoo.com</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://www.yahoo.com/</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://python.org</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://www.python.org/</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com/</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.nike.com</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://www.nike.com/</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://google.com</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://github.com</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://github.com/</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://youtube.com</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://facebook.com</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://yahoo.com</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://www.yahoo.com/</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://python.org</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://www.python.org/</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://github.com</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://github.com/</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com/</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://google.com</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>https://youtube.com</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://facebook.com</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://python.org</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://www.python.org/</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.nike.com</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://www.nike.com/</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://yahoo.com</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://www.yahoo.com/</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://github.com</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://github.com/</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://google.com</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com/</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://youtube.com</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://facebook.com</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.nike.com</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://www.nike.com/</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://python.org</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://www.python.org/</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://yahoo.com</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://www.yahoo.com/</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>301</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data File.xlsx
+++ b/Data File.xlsx
@@ -1,59 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.chickens.com</t>
+  </si>
+  <si>
+    <t>https://www.nike.com</t>
+  </si>
+  <si>
+    <t>https://moz.com/</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>https://github.com</t>
+  </si>
+  <si>
+    <t>https://youtube.com</t>
+  </si>
+  <si>
+    <t>https://facebook.com</t>
+  </si>
+  <si>
+    <t>https://yahoo.com</t>
+  </si>
+  <si>
+    <t>https://python.org</t>
+  </si>
+  <si>
+    <t>10ubon.com</t>
+  </si>
+  <si>
+    <t>https://www.advilaide.com</t>
+  </si>
+  <si>
+    <t>https://www.coldrex.ua</t>
+  </si>
+  <si>
+    <t>https://www.aquafresh.ba</t>
+  </si>
+  <si>
+    <t>https://www.aquafresh.hr</t>
+  </si>
+  <si>
+    <t>https://www.citypuls.ro</t>
+  </si>
+  <si>
+    <t>Final URL</t>
+  </si>
+  <si>
+    <t>HTTP Response</t>
+  </si>
+  <si>
+    <t>Error Details</t>
+  </si>
+  <si>
+    <t>https://www.chickens.com/</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='www.aquafresh.hr', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: self signed certificate (_ssl.c:1124)')))</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>https://10ubon.com</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='10ubon.com', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FE2C3E8910&gt;: Failed to establish a new connection: [Errno 11001] getaddrinfo failed'))</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='www.citypuls.ro', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError("hostname 'www.citypuls.ro' doesn't match 'blablacar-gosti.ru'")))</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='www.advilaide.com', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FE2C3FFD00&gt;: Failed to establish a new connection: [Errno 11002] getaddrinfo failed'))</t>
+  </si>
+  <si>
+    <t>('Connection aborted.', ConnectionResetError(10054, 'An existing connection was forcibly closed by the remote host', None, 10054, None))</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/supported_browsers?next_url=https%3A%2F%2Fyoutube.com%2F</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>https://www.python.org/</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/?refsrc=https%3A%2F%2Fwww.facebook.com%2F&amp;_rdr</t>
+  </si>
+  <si>
+    <t>https://www.yahoo.com/</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='www.aquafresh.ba', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FE2C3E8490&gt;: Failed to establish a new connection: [WinError 10060] A connection attempt failed because the connected party did not properly respond after a period of time, or established connection failed because connected host has failed to respond'))</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='10ubon.com', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001BD64261760&gt;: Failed to establish a new connection: [Errno 11001] getaddrinfo failed'))</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='www.advilaide.com', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001BD64269400&gt;: Failed to establish a new connection: [Errno 11002] getaddrinfo failed'))</t>
+  </si>
+  <si>
+    <t>https://www.aquafresh.hr/</t>
+  </si>
+  <si>
+    <t>https://www.citypuls.ro/</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='www.aquafresh.ba', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001BD642720D0&gt;: Failed to establish a new connection: [WinError 10060] A connection attempt failed because the connected party did not properly respond after a period of time, or established connection failed because connected host has failed to respond'))</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8E8E8"/>
+        <fgColor rgb="FFE8E8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,85 +212,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,308 +521,512 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="25.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>https://www.nike.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>https://google.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>https://github.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>https://youtube.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>https://facebook.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>https://yahoo.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>https://python.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10ubon.com</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId8"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.freelancer.com/users/l.php?url=https:%2F%2Fwww.advilaide.com&amp;sig=2a08a604073bdf24a96d9eb650f3ee9de833d7e2edd6cbb56d02d44e755b9da6"/>
+    <hyperlink ref="A13" r:id="rId10"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://www.freelancer.com/users/l.php?url=https:%2F%2Fwww.aquafresh.ba&amp;sig=1109a36fb366fbdc891a266fb5149103992627a3cae0da827c3fad2b25c80816"/>
+    <hyperlink ref="A15" r:id="rId12" display="https://www.freelancer.com/users/l.php?url=https:%2F%2Fwww.aquafresh.hr&amp;sig=0b4481a3d3e93347af53713ade81e180200827ea18a9f9fb253d2a1aca11624f"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://www.freelancer.com/users/l.php?url=https:%2F%2Fwww.citypuls.ro&amp;sig=f1d12f3d0d8a518dd8890b9403723e75d2a11867d3007eebc0c03f4af6d5fda4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col min="1" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Final URL</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>HTTP Response</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.chickens.com/</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://moz.com/</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>200</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://10ubon.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://10ubon.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://github.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://github.com/</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
         <v>200</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://google.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
         <v>301</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.nike.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.nike.com/</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
         <v>200</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://youtube.com</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
         <v>302</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://facebook.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
         <v>301</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://python.org</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.python.org/</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
         <v>301</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://yahoo.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.yahoo.com/</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>301</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
